--- a/biology/Botanique/Jardin_Jean-Félix_Hap/Jardin_Jean-Félix_Hap.xlsx
+++ b/biology/Botanique/Jardin_Jean-Félix_Hap/Jardin_Jean-Félix_Hap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Jean-F%C3%A9lix_Hap</t>
+          <t>Jardin_Jean-Félix_Hap</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Jean-Félix Hap (en néerlandais : Jean-Félix Hap park/tuin) est un parc dédié au repos et à la promenade avec un espace écologique et didactique situé dans la commune d’Etterbeek (Bruxelles).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Jean-F%C3%A9lix_Hap</t>
+          <t>Jardin_Jean-Félix_Hap</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Une ancienne propriété privée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La propriété d’un hectare et vingt ares et qui comprend en son centre un château du XVIe siècle est acheté en 1804 par Albert Joseph Hap, bourgmestre de la commune d’Etterbeek. De style renaissance flamande, le castel est entouré d’un étang alimenté par la source d’un ruisselet, le Broebelaar. La bâtisse de deux travées sur deux niveaux était flanquée de deux tours carrées, surmontées d’un toit pointu. Au nord du parc, la famille installe bientôt une petite brasserie et des serres.
 À l’occasion de son mariage, en 1851, le fils Hap, François-Louis, notaire de son état, décide de construire un nouveau bâtiment, de style néoclassique – le 508, chaussée de Wavre - à l’abri de l’humidité causée par le ruisseau et d’élever un mur autour de sa propriété. L'hôtel particulier subit des transformations en 1905 d’après les plans de l’architecte G. Thoelen qui allonge le bâtiment et y ajoute une véranda. Il laisse toutefois intactes les peintures murales d’Edouard Navez (1840-1910) qui décorent le logis privé, situé dans l’aile gauche. Elles évoquent des paysages etterbeekois comme l’église Sainte-Gertrude, le moulin de la Chasse royale, etc.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Jean-F%C3%A9lix_Hap</t>
+          <t>Jardin_Jean-Félix_Hap</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Un jardin aux charmes désuets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin d’aujourd’hui est un lieu étonnamment calme au charme désuet. On y accède par une petite porte percée dans le mur qui longe la chaussée. On y découvre l’ancienne orangerie (v. 1850), qui a aussi servi d’écurie et d’atelier d’artistes. Plus loin, à côté d’une ruine seul vestige de l’ancien château se trouve un étang naturel alimenté par une des sources du Broebelaar, affluent du Maelbeek et un petit kiosque vitré.
 La pelouse centrale comporte quelques beaux sujets - marronniers, peupliers, érables, catalpas et un tulipier de Virginie (classé en tant qu'arbre remarquable) – qui attestent de l’ancienneté de la propriété. 
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Jean-F%C3%A9lix_Hap</t>
+          <t>Jardin_Jean-Félix_Hap</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, les 10 arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
 			Jardin didactique
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_Jean-F%C3%A9lix_Hap</t>
+          <t>Jardin_Jean-Félix_Hap</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thierry Demey, Bruxelles en vert, guide-promenades des jardins publics du Molenbeek à la Woluwe, Bruxelles, Badeaux, 2003, 545 p.</t>
         </is>
